--- a/Presentaciones/Ejercicio-Normalización.xlsx
+++ b/Presentaciones/Ejercicio-Normalización.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MisionTIC2022-Ciclo2\MisionTIC2022-Ciclo2\Presentaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F80388E-7520-47C3-AB73-85BEDDDA205A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52452496-8870-417A-8399-644DC16B2D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6B540A3F-B688-4F28-ADA0-44449FB29F49}"/>
+    <workbookView xWindow="3585" yWindow="2220" windowWidth="10695" windowHeight="11835" activeTab="1" xr2:uid="{6B540A3F-B688-4F28-ADA0-44449FB29F49}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="50">
   <si>
     <t>Julio</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>1ra Forma Normal</t>
+  </si>
+  <si>
+    <t>ID_Sucursal</t>
+  </si>
+  <si>
+    <t>ID_Cuenta</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +209,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -381,6 +394,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B34A993-08E4-48E3-9572-7AAF8E61486A}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1393,25 +1428,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C14C4C-A720-42C2-9B59-919661B5B257}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -1419,7 +1457,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>4</v>
       </c>
@@ -1471,7 +1509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="7">
@@ -1493,7 +1531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="7">
@@ -1515,7 +1553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7">
@@ -1537,7 +1575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="8">
@@ -1559,7 +1597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -1585,7 +1623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="7">
@@ -1607,7 +1645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="7">
@@ -1629,7 +1667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="8">
@@ -1651,7 +1689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
@@ -1661,6 +1699,705 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3579</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="13">
+        <v>5</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="13">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
+        <v>9368</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="13">
+        <v>7</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="13">
+        <v>98</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2049</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13">
+        <v>76</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4875</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="13">
+        <v>9</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="13">
+        <v>23</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1093</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>8</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13">
+        <v>90</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13">
+        <v>8374</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="13">
+        <v>6</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>8</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13">
+        <v>45</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2764</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="13">
+        <v>4</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13">
+        <v>89</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="13">
+        <v>8953</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="13">
+        <v>8</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>8</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13">
+        <v>32</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="13">
+        <v>6192</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>4</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="13">
+        <v>24</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>4</v>
+      </c>
+      <c r="H31" s="13">
+        <v>3579</v>
+      </c>
+      <c r="I31" s="24">
+        <v>1</v>
+      </c>
+      <c r="J31" s="23">
+        <v>5</v>
+      </c>
+      <c r="L31" s="13">
+        <v>24</v>
+      </c>
+      <c r="M31" s="13">
+        <v>3579</v>
+      </c>
+      <c r="N31" s="23">
+        <v>5</v>
+      </c>
+      <c r="P31" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="13">
+        <v>56</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>4</v>
+      </c>
+      <c r="H32" s="13">
+        <v>9368</v>
+      </c>
+      <c r="I32" s="24">
+        <v>1</v>
+      </c>
+      <c r="J32" s="23">
+        <v>7</v>
+      </c>
+      <c r="L32" s="13">
+        <v>56</v>
+      </c>
+      <c r="M32" s="13">
+        <v>9368</v>
+      </c>
+      <c r="N32" s="23">
+        <v>7</v>
+      </c>
+      <c r="P32" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="13">
+        <v>98</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="12">
+        <v>4</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2049</v>
+      </c>
+      <c r="I33" s="24">
+        <v>2</v>
+      </c>
+      <c r="J33" s="23">
+        <v>2</v>
+      </c>
+      <c r="L33" s="13">
+        <v>98</v>
+      </c>
+      <c r="M33" s="13">
+        <v>2049</v>
+      </c>
+      <c r="N33" s="23">
+        <v>2</v>
+      </c>
+      <c r="P33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34" s="13">
+        <v>76</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="12">
+        <v>4</v>
+      </c>
+      <c r="H34" s="13">
+        <v>4875</v>
+      </c>
+      <c r="I34" s="24">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23">
+        <v>9</v>
+      </c>
+      <c r="L34" s="13">
+        <v>76</v>
+      </c>
+      <c r="M34" s="13">
+        <v>4875</v>
+      </c>
+      <c r="N34" s="23">
+        <v>9</v>
+      </c>
+      <c r="P34" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35" s="13">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="12">
+        <v>4</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1093</v>
+      </c>
+      <c r="I35" s="24">
+        <v>2</v>
+      </c>
+      <c r="J35" s="23">
+        <v>3</v>
+      </c>
+      <c r="L35" s="13">
+        <v>23</v>
+      </c>
+      <c r="M35" s="13">
+        <v>1093</v>
+      </c>
+      <c r="N35" s="23">
+        <v>3</v>
+      </c>
+      <c r="P35" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="13">
+        <v>90</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="12">
+        <v>8</v>
+      </c>
+      <c r="H36" s="13">
+        <v>8374</v>
+      </c>
+      <c r="I36" s="24">
+        <v>2</v>
+      </c>
+      <c r="J36" s="23">
+        <v>6</v>
+      </c>
+      <c r="L36" s="13">
+        <v>90</v>
+      </c>
+      <c r="M36" s="13">
+        <v>8374</v>
+      </c>
+      <c r="N36" s="23">
+        <v>6</v>
+      </c>
+      <c r="P36" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="13">
+        <v>45</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="12">
+        <v>8</v>
+      </c>
+      <c r="H37" s="13">
+        <v>2764</v>
+      </c>
+      <c r="I37" s="24">
+        <v>1</v>
+      </c>
+      <c r="J37" s="23">
+        <v>4</v>
+      </c>
+      <c r="L37" s="13">
+        <v>45</v>
+      </c>
+      <c r="M37" s="13">
+        <v>2764</v>
+      </c>
+      <c r="N37" s="23">
+        <v>4</v>
+      </c>
+      <c r="P37" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="13">
+        <v>89</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="12">
+        <v>8</v>
+      </c>
+      <c r="H38" s="13">
+        <v>8953</v>
+      </c>
+      <c r="I38" s="24">
+        <v>1</v>
+      </c>
+      <c r="J38" s="23">
+        <v>8</v>
+      </c>
+      <c r="L38" s="13">
+        <v>89</v>
+      </c>
+      <c r="M38" s="13">
+        <v>8953</v>
+      </c>
+      <c r="N38" s="23">
+        <v>8</v>
+      </c>
+      <c r="P38" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39" s="13">
+        <v>32</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="12">
+        <v>8</v>
+      </c>
+      <c r="H39" s="13">
+        <v>6192</v>
+      </c>
+      <c r="I39" s="24">
+        <v>1</v>
+      </c>
+      <c r="J39" s="23">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
+        <v>32</v>
+      </c>
+      <c r="M39" s="13">
+        <v>6192</v>
+      </c>
+      <c r="N39" s="23">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="H40" s="26">
+        <v>5698</v>
+      </c>
+      <c r="I40" s="27">
+        <v>1</v>
+      </c>
+      <c r="J40" s="23">
+        <v>5</v>
+      </c>
+      <c r="L40" s="26">
+        <v>24</v>
+      </c>
+      <c r="M40" s="26">
+        <v>5698</v>
+      </c>
+      <c r="N40" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="H43" s="24">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="H44" s="24">
+        <v>2</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1672,5 +2409,6 @@
     <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>